--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91879\OneDrive\Desktop\Cricket-Website\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D4EC96-0286-46D8-9FF8-0F7C29AE7BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F5791F-3D83-42EA-A0B1-89E0D543D05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -31,9 +42,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>oldPrice</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
@@ -55,9 +63,6 @@
     <t>New Pro Players Edition</t>
   </si>
   <si>
-    <t>₹2,000</t>
-  </si>
-  <si>
     <t>New Pro Players Edition-IMG.png</t>
   </si>
   <si>
@@ -70,51 +75,30 @@
     <t>New Premium Players</t>
   </si>
   <si>
-    <t>₹1,899</t>
-  </si>
-  <si>
     <t>New Premium Players-IMG.png</t>
   </si>
   <si>
     <t>77 CBS Edition 7 Star</t>
   </si>
   <si>
-    <t>₹1,500</t>
-  </si>
-  <si>
     <t>77 CBS Edition 7 Star-IMG.png</t>
   </si>
   <si>
     <t>Ciel Fighter AK 47 hard tennis cricket bat</t>
   </si>
   <si>
-    <t>₹3,000</t>
-  </si>
-  <si>
     <t>Ciel Gold edition hard tennis cricket bat</t>
   </si>
   <si>
-    <t>₹3,500</t>
-  </si>
-  <si>
     <t>72 Black Edition Cricket Bat</t>
   </si>
   <si>
-    <t>₹5,500</t>
-  </si>
-  <si>
     <t>950g</t>
   </si>
   <si>
     <t>Icon Edition Cricket Bat</t>
   </si>
   <si>
-    <t>₹4,500</t>
-  </si>
-  <si>
-    <t>₹4,800</t>
-  </si>
-  <si>
     <t>Ciel</t>
   </si>
   <si>
@@ -152,6 +136,9 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>discount</t>
   </si>
 </sst>
 </file>
@@ -201,31 +188,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,58 +545,92 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{B805537B-59A3-4B2D-93DF-753F55EF436B}">
+  <we:reference id="wa200005271" version="2.6.1.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200005271" version="2.6.1.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_AI_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_ASK</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_TRANSLATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_AI_CHOICE</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.296875" customWidth="1"/>
-    <col min="2" max="2" width="40.09765625" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" customWidth="1"/>
-    <col min="5" max="5" width="142.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" customWidth="1"/>
-    <col min="8" max="8" width="9.3984375" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" customWidth="1"/>
-    <col min="10" max="10" width="9.3984375" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="77.8984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -623,29 +638,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1">
         <v>4.8</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>43</v>
+      <c r="I2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -653,29 +670,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1">
         <v>4.7</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>43</v>
+      <c r="I3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -683,169 +702,183 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>43</v>
+      <c r="I4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="1">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>43</v>
+      <c r="I5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>43</v>
+      <c r="I6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="3">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
         <v>72</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1">
         <v>4.8</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>43</v>
+      <c r="I7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1">
         <v>72</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1">
         <v>4.7</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>43</v>
+      <c r="I8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3">
-        <v>72</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>43</v>
+      <c r="J9" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +886,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J1 A6:B6 A5:B5 A4:C4 A3 F3:G3 G5 G6 A2:B2 F2:G2 E4:G4 C3 I2 I3 I4 I5 I6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B1 A6:B6 A5:B5 A4:B4 A3 E3:F3 F5 F6 A2:B2 E2:F2 D4:F4 H2 H3 H4 H5 H6 D1:I1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>